--- a/odm test companion sample - before.xlsx
+++ b/odm test companion sample - before.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RuleScape-wrk\work\assets\demo\to_restore\dvsboost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FFF265-53EA-4FB8-B4E0-DB240FBC331F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3CD1C3-77C7-415D-BF47-850BE3C431AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4110" yWindow="3660" windowWidth="26985" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -3204,7 +3204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="686">
   <si>
     <t/>
   </si>
@@ -5335,12 +5335,24 @@
   <si>
     <t>purchase data 11</t>
   </si>
+  <si>
+    <t>insurance data 5</t>
+  </si>
+  <si>
+    <t>insurance data 6</t>
+  </si>
+  <si>
+    <t>insurance data 7</t>
+  </si>
+  <si>
+    <t>insurance data 8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -5460,6 +5472,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -5658,7 +5677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="18" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5733,7 +5752,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -10843,7 +10864,7 @@
   <dimension ref="B2:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -10854,8 +10875,8 @@
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1"/>
     <col min="9" max="10" width="15.5703125" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
@@ -10879,34 +10900,34 @@
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="55" t="s">
+      <c r="E5" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="57" t="s">
         <v>0</v>
       </c>
     </row>
@@ -11031,70 +11052,70 @@
       <c r="C9" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="D9" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="52" t="s">
+      <c r="D9" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="55">
         <v>42037</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="54" t="s">
         <v>597</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="54" t="s">
         <v>369</v>
       </c>
-      <c r="J9" s="52" t="s">
+      <c r="J9" s="54" t="s">
         <v>600</v>
       </c>
-      <c r="K9" s="52" t="s">
+      <c r="K9" s="54" t="s">
         <v>495</v>
       </c>
-      <c r="L9" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="52" t="s">
+      <c r="L9" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="54" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="52" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="54" t="s">
         <v>598</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="52"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
     </row>
     <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -11103,62 +11124,62 @@
       <c r="C12" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="54" t="s">
         <v>602</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="55">
         <v>42037</v>
       </c>
-      <c r="G12" s="52"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="54" t="s">
         <v>369</v>
       </c>
-      <c r="J12" s="52" t="s">
+      <c r="J12" s="54" t="s">
         <v>600</v>
       </c>
-      <c r="K12" s="52" t="s">
+      <c r="K12" s="54" t="s">
         <v>495</v>
       </c>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="52"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="52"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="54"/>
       <c r="H14" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="2:13" ht="24" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
@@ -11167,68 +11188,68 @@
       <c r="C15" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="54" t="s">
         <v>602</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="55">
         <v>42037</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="54" t="s">
         <v>597</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="I15" s="54" t="s">
         <v>369</v>
       </c>
-      <c r="J15" s="52" t="s">
+      <c r="J15" s="54" t="s">
         <v>600</v>
       </c>
-      <c r="K15" s="52" t="s">
+      <c r="K15" s="54" t="s">
         <v>495</v>
       </c>
-      <c r="L15" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="52" t="s">
+      <c r="L15" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="54" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="52" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="54" t="s">
         <v>598</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
     </row>
     <row r="18" spans="2:13" ht="24" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
@@ -11237,66 +11258,66 @@
       <c r="C18" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="54" t="s">
         <v>602</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="55">
         <v>42037</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="54" t="s">
         <v>597</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="54" t="s">
         <v>369</v>
       </c>
-      <c r="J18" s="52" t="s">
+      <c r="J18" s="54" t="s">
         <v>600</v>
       </c>
-      <c r="K18" s="52" t="s">
+      <c r="K18" s="54" t="s">
         <v>495</v>
       </c>
-      <c r="L18" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="52" t="s">
+      <c r="L18" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="54" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="52"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
     </row>
     <row r="21" spans="2:13" ht="24" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
@@ -11305,16 +11326,16 @@
       <c r="C21" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="54" t="s">
         <v>602</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="55">
         <v>42037</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="54" t="s">
         <v>597</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -11323,90 +11344,90 @@
       <c r="I21" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="J21" s="52" t="s">
+      <c r="J21" s="54" t="s">
         <v>600</v>
       </c>
-      <c r="K21" s="52" t="s">
+      <c r="K21" s="54" t="s">
         <v>681</v>
       </c>
-      <c r="L21" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="M21" s="52" t="s">
+      <c r="L21" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="54" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="52"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="54"/>
       <c r="H22" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
     </row>
     <row r="23" spans="2:13" s="48" customFormat="1" ht="24" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="54" t="s">
         <v>665</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="54" t="s">
         <v>602</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="54" t="s">
         <v>667</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="55" t="s">
         <v>666</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="54" t="s">
         <v>668</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>296</v>
+      <c r="H23" s="56" t="s">
+        <v>684</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="J23" s="52" t="s">
+      <c r="J23" s="54" t="s">
         <v>600</v>
       </c>
-      <c r="K23" s="52" t="s">
+      <c r="K23" s="54" t="s">
         <v>495</v>
       </c>
-      <c r="L23" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="M23" s="52" t="s">
+      <c r="L23" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="54" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:13" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="2" t="s">
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="56" t="s">
         <v>631</v>
       </c>
-      <c r="I24" s="52" t="s">
+      <c r="I24" s="54" t="s">
         <v>369</v>
       </c>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11545,40 +11566,40 @@
       <c r="B7" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="53" t="s">
+      <c r="C7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="52" t="s">
         <v>0</v>
       </c>
     </row>
@@ -11602,7 +11623,7 @@
   <dimension ref="B2:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7:P31"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -11738,40 +11759,40 @@
       <c r="B7" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="53">
         <v>909</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="53">
         <v>300000</v>
       </c>
       <c r="E7" s="1">
         <v>42369</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="53">
         <v>2000</v>
       </c>
-      <c r="G7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="52" t="s">
+      <c r="G7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="I7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="52" t="s">
+      <c r="I7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="51" t="s">
         <v>629</v>
       </c>
-      <c r="N7" s="54" t="b">
+      <c r="N7" s="53" t="b">
         <v>1</v>
       </c>
       <c r="O7" s="1">
@@ -11780,7 +11801,7 @@
       <c r="P7" s="1">
         <v>42735</v>
       </c>
-      <c r="Q7" s="52" t="s">
+      <c r="Q7" s="51" t="s">
         <v>630</v>
       </c>
     </row>
@@ -11788,30 +11809,30 @@
       <c r="B8" s="50" t="s">
         <v>599</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="53">
         <v>23</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="53">
         <v>300000</v>
       </c>
       <c r="E8" s="1">
         <v>42369</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="53">
         <v>2000</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52" t="s">
+      <c r="G8" s="51"/>
+      <c r="H8" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52" t="s">
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51" t="s">
         <v>629</v>
       </c>
-      <c r="N8" s="54" t="b">
+      <c r="N8" s="53" t="b">
         <v>1</v>
       </c>
       <c r="O8" s="1">
@@ -11820,7 +11841,7 @@
       <c r="P8" s="1">
         <v>42735</v>
       </c>
-      <c r="Q8" s="52" t="s">
+      <c r="Q8" s="51" t="s">
         <v>630</v>
       </c>
     </row>
@@ -11828,28 +11849,28 @@
       <c r="B9" s="50" t="s">
         <v>631</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="53">
         <v>3400</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="53">
         <v>300000</v>
       </c>
       <c r="E9" s="1">
         <v>42369</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52" t="s">
+      <c r="F9" s="53"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52" t="s">
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51" t="s">
         <v>629</v>
       </c>
-      <c r="N9" s="54" t="b">
+      <c r="N9" s="53" t="b">
         <v>1</v>
       </c>
       <c r="O9" s="1">
@@ -11858,7 +11879,7 @@
       <c r="P9" s="1">
         <v>42735</v>
       </c>
-      <c r="Q9" s="52" t="s">
+      <c r="Q9" s="51" t="s">
         <v>630</v>
       </c>
     </row>
@@ -11866,28 +11887,28 @@
       <c r="B10" s="50" t="s">
         <v>663</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="53">
         <v>400</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="53">
         <v>10000</v>
       </c>
       <c r="E10" s="1">
         <v>42369</v>
       </c>
-      <c r="F10" s="54"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52" t="s">
+      <c r="F10" s="53"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52" t="s">
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51" t="s">
         <v>629</v>
       </c>
-      <c r="N10" s="54" t="b">
+      <c r="N10" s="53" t="b">
         <v>1</v>
       </c>
       <c r="O10" s="1">
@@ -11896,29 +11917,158 @@
       <c r="P10" s="1">
         <v>42735</v>
       </c>
-      <c r="Q10" s="52" t="s">
+      <c r="Q10" s="51" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+    <row r="11" spans="2:17" s="53" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="53" t="s">
+        <v>682</v>
+      </c>
+      <c r="C11" s="53">
+        <v>909</v>
+      </c>
+      <c r="D11" s="53">
+        <v>300000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>42369</v>
+      </c>
+      <c r="F11" s="53">
+        <v>2000</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="N11" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>42156</v>
+      </c>
+      <c r="P11" s="1">
+        <v>42735</v>
+      </c>
+      <c r="Q11" s="53" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="53" t="s">
+        <v>683</v>
+      </c>
+      <c r="C12" s="53">
+        <v>23</v>
+      </c>
+      <c r="D12" s="53">
+        <v>300000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>42369</v>
+      </c>
+      <c r="F12" s="53">
+        <v>2000</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="M12" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="N12" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>42156</v>
+      </c>
+      <c r="P12" s="1">
+        <v>42735</v>
+      </c>
+      <c r="Q12" s="53" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="53" t="s">
+        <v>684</v>
+      </c>
+      <c r="C13" s="53">
+        <v>3400</v>
+      </c>
+      <c r="D13" s="53">
+        <v>300000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>42369</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="M13" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="N13" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>42156</v>
+      </c>
+      <c r="P13" s="1">
+        <v>42735</v>
+      </c>
+      <c r="Q13" s="53" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="53" t="s">
+        <v>685</v>
+      </c>
+      <c r="C14" s="53">
+        <v>400</v>
+      </c>
+      <c r="D14" s="53">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>42369</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="M14" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="N14" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>42156</v>
+      </c>
+      <c r="P14" s="1">
+        <v>42735</v>
+      </c>
+      <c r="Q14" s="53" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E15" s="1"/>
@@ -11992,6 +12142,7 @@
       <c r="P31" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H1048576" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>domainN</formula1>
@@ -12004,8 +12155,9 @@
     <hyperlink ref="B3" location="'HELP'!A1" display="Click here to access the help sheet" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -12014,7 +12166,7 @@
   <dimension ref="B2:AN10"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AN7" sqref="AN7:AN10"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -12305,325 +12457,325 @@
       <c r="B7" s="50" t="s">
         <v>369</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="53">
         <v>4.82</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="53">
         <v>0.91</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="53">
         <v>0.78</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="53">
         <v>2010.12</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="51" t="s">
         <v>376</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="53">
         <v>180900</v>
       </c>
-      <c r="I7" s="54">
-        <v>0</v>
-      </c>
-      <c r="J7" s="54" t="b">
+      <c r="I7" s="53">
+        <v>0</v>
+      </c>
+      <c r="J7" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="K7" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="54">
+      <c r="K7" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="53">
         <v>0.18</v>
       </c>
-      <c r="M7" s="54">
-        <v>0</v>
-      </c>
-      <c r="N7" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="54">
-        <v>0</v>
-      </c>
-      <c r="P7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" s="53">
+      <c r="M7" s="53">
+        <v>0</v>
+      </c>
+      <c r="N7" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="53">
+        <v>0</v>
+      </c>
+      <c r="P7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
         <v>42109</v>
       </c>
-      <c r="T7" s="54">
+      <c r="T7" s="53">
         <v>2</v>
       </c>
-      <c r="U7" s="54">
+      <c r="U7" s="53">
         <v>3</v>
       </c>
-      <c r="V7" s="52" t="s">
+      <c r="V7" s="51" t="s">
         <v>632</v>
       </c>
-      <c r="W7" s="52" t="s">
+      <c r="W7" s="51" t="s">
         <v>633</v>
       </c>
-      <c r="X7" s="52" t="s">
+      <c r="X7" s="51" t="s">
         <v>634</v>
       </c>
-      <c r="Y7" s="54">
+      <c r="Y7" s="53">
         <v>360</v>
       </c>
-      <c r="Z7" s="52" t="s">
+      <c r="Z7" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="AA7" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="54">
+      <c r="AA7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="53">
         <v>887.21</v>
       </c>
-      <c r="AC7" s="52" t="s">
+      <c r="AC7" s="51" t="s">
         <v>379</v>
       </c>
-      <c r="AD7" s="54">
+      <c r="AD7" s="53">
         <v>1</v>
       </c>
-      <c r="AE7" s="54">
+      <c r="AE7" s="53">
         <v>1</v>
       </c>
-      <c r="AF7" s="52" t="s">
+      <c r="AF7" s="51" t="s">
         <v>636</v>
       </c>
-      <c r="AG7" s="54">
+      <c r="AG7" s="53">
         <v>4.22</v>
       </c>
-      <c r="AH7" s="54">
+      <c r="AH7" s="53">
         <v>309000</v>
       </c>
-      <c r="AI7" s="54">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="54" t="b">
+      <c r="AI7" s="53">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="AK7" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="54">
+      <c r="AK7" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="53">
         <v>309000</v>
       </c>
-      <c r="AM7" s="54">
+      <c r="AM7" s="53">
         <v>43909</v>
       </c>
-      <c r="AN7" s="54">
+      <c r="AN7" s="53">
         <v>132000</v>
       </c>
     </row>
     <row r="8" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B8" s="50"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="52" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="51" t="s">
         <v>635</v>
       </c>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="54"/>
-      <c r="AM8" s="54"/>
-      <c r="AN8" s="54"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
     </row>
     <row r="9" spans="2:40" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B9" s="50" t="s">
         <v>657</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="53">
         <v>4.82</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="53">
         <v>0.91</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="53">
         <v>0.78</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="53">
         <v>2010.12</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="51" t="s">
         <v>371</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="53">
         <v>180900</v>
       </c>
-      <c r="I9" s="54">
-        <v>0</v>
-      </c>
-      <c r="J9" s="54" t="b">
+      <c r="I9" s="53">
+        <v>0</v>
+      </c>
+      <c r="J9" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="K9" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="54">
+      <c r="K9" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="53">
         <v>0.18</v>
       </c>
-      <c r="M9" s="54">
-        <v>0</v>
-      </c>
-      <c r="N9" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="54">
-        <v>0</v>
-      </c>
-      <c r="P9" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" s="53">
+      <c r="M9" s="53">
+        <v>0</v>
+      </c>
+      <c r="N9" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="53">
+        <v>0</v>
+      </c>
+      <c r="P9" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
         <v>42109</v>
       </c>
-      <c r="T9" s="54">
+      <c r="T9" s="53">
         <v>2</v>
       </c>
-      <c r="U9" s="54">
+      <c r="U9" s="53">
         <v>3</v>
       </c>
-      <c r="V9" s="52" t="s">
+      <c r="V9" s="51" t="s">
         <v>632</v>
       </c>
-      <c r="W9" s="52" t="s">
+      <c r="W9" s="51" t="s">
         <v>633</v>
       </c>
-      <c r="X9" s="52" t="s">
+      <c r="X9" s="51" t="s">
         <v>634</v>
       </c>
-      <c r="Y9" s="54">
+      <c r="Y9" s="53">
         <v>360</v>
       </c>
-      <c r="Z9" s="52" t="s">
+      <c r="Z9" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="AA9" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="54">
+      <c r="AA9" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="53">
         <v>887.21</v>
       </c>
-      <c r="AC9" s="52" t="s">
+      <c r="AC9" s="51" t="s">
         <v>379</v>
       </c>
-      <c r="AD9" s="54">
+      <c r="AD9" s="53">
         <v>1</v>
       </c>
-      <c r="AE9" s="54">
+      <c r="AE9" s="53">
         <v>1</v>
       </c>
-      <c r="AF9" s="52" t="s">
+      <c r="AF9" s="51" t="s">
         <v>636</v>
       </c>
-      <c r="AG9" s="54">
+      <c r="AG9" s="53">
         <v>4.22</v>
       </c>
-      <c r="AH9" s="54">
+      <c r="AH9" s="53">
         <v>309000</v>
       </c>
-      <c r="AI9" s="54">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="54" t="b">
+      <c r="AI9" s="53">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="AK9" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="54">
+      <c r="AK9" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="53">
         <v>309000</v>
       </c>
-      <c r="AM9" s="54">
+      <c r="AM9" s="53">
         <v>43909</v>
       </c>
-      <c r="AN9" s="54">
+      <c r="AN9" s="53">
         <v>132000</v>
       </c>
     </row>
     <row r="10" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B10" s="50"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="52" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="51" t="s">
         <v>635</v>
       </c>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="54"/>
-      <c r="AI10" s="54"/>
-      <c r="AJ10" s="54"/>
-      <c r="AK10" s="54"/>
-      <c r="AL10" s="54"/>
-      <c r="AM10" s="54"/>
-      <c r="AN10" s="54"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -12697,10 +12849,10 @@
       <c r="B7" s="50" t="s">
         <v>386</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="53">
         <v>240900</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>387</v>
       </c>
     </row>
@@ -12708,10 +12860,10 @@
       <c r="B8" s="50" t="s">
         <v>635</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="53">
         <v>80200</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>162</v>
       </c>
     </row>
@@ -13003,106 +13155,106 @@
       <c r="B7" s="50" t="s">
         <v>600</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
         <v>621</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>637</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="51" t="s">
         <v>459</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="51" t="s">
         <v>638</v>
       </c>
-      <c r="H7" s="54" t="b">
+      <c r="H7" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="52" t="s">
+      <c r="I7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="51" t="s">
         <v>639</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="53">
         <v>2212.11</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7" s="53">
         <v>992</v>
       </c>
-      <c r="N7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="54">
+      <c r="N7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="53">
         <v>68777</v>
       </c>
-      <c r="R7" s="53">
+      <c r="R7" s="52">
         <v>42004</v>
       </c>
-      <c r="S7" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="54" t="b">
+      <c r="S7" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="U7" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7" s="54">
+      <c r="U7" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="53">
         <v>695</v>
       </c>
-      <c r="W7" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" s="54">
+      <c r="W7" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="53">
         <v>3</v>
       </c>
-      <c r="Y7" s="54">
+      <c r="Y7" s="53">
         <v>1</v>
       </c>
-      <c r="Z7" s="54">
+      <c r="Z7" s="53">
         <v>92</v>
       </c>
-      <c r="AA7" s="52" t="s">
+      <c r="AA7" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="AB7" s="52" t="s">
+      <c r="AB7" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="AC7" s="54">
+      <c r="AC7" s="53">
         <v>290011</v>
       </c>
-      <c r="AD7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="54" t="b">
+      <c r="AD7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="AG7" s="52" t="s">
+      <c r="AG7" s="51" t="s">
         <v>468</v>
       </c>
-      <c r="AH7" s="54" t="b">
+      <c r="AH7" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="AI7" s="54">
+      <c r="AI7" s="53">
         <v>2013</v>
       </c>
-      <c r="AJ7" s="54">
+      <c r="AJ7" s="53">
         <v>1</v>
       </c>
     </row>
@@ -13315,241 +13467,241 @@
       <c r="B7" s="50" t="s">
         <v>495</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="53">
         <v>320000</v>
       </c>
       <c r="D7" s="1">
         <v>42109</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="53">
         <v>320000</v>
       </c>
       <c r="F7" s="1">
         <v>42109</v>
       </c>
-      <c r="G7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="53">
+      <c r="G7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="52">
         <v>42156</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="53">
         <v>320000</v>
       </c>
-      <c r="M7" s="53">
+      <c r="M7" s="52">
         <v>53114</v>
       </c>
-      <c r="N7" s="54">
+      <c r="N7" s="53">
         <v>248.87</v>
       </c>
-      <c r="O7" s="53">
+      <c r="O7" s="52">
         <v>42186</v>
       </c>
-      <c r="P7" s="54">
+      <c r="P7" s="53">
         <v>334.11</v>
       </c>
-      <c r="Q7" s="52" t="s">
+      <c r="Q7" s="51" t="s">
         <v>507</v>
       </c>
-      <c r="R7" s="54">
+      <c r="R7" s="53">
         <v>80</v>
       </c>
-      <c r="S7" s="54">
-        <v>0</v>
-      </c>
-      <c r="T7" s="54">
+      <c r="S7" s="53">
+        <v>0</v>
+      </c>
+      <c r="T7" s="53">
         <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>42109</v>
       </c>
-      <c r="V7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="W7" s="54">
+      <c r="V7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="50"/>
-      <c r="C8" s="54"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="54"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="52" t="s">
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="51" t="s">
         <v>642</v>
       </c>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="54"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="53"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="50"/>
-      <c r="C9" s="54"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="54"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="52" t="s">
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="51" t="s">
         <v>644</v>
       </c>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="54"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="53"/>
     </row>
     <row r="10" spans="2:23" s="48" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B10" s="50" t="s">
         <v>669</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="53">
         <v>320000</v>
       </c>
       <c r="D10" s="1">
         <v>42109</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="53">
         <v>320000</v>
       </c>
       <c r="F10" s="1">
         <v>42109</v>
       </c>
-      <c r="G10" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="53">
+      <c r="G10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="52">
         <v>42156</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="53">
         <v>320000</v>
       </c>
-      <c r="M10" s="53">
+      <c r="M10" s="52">
         <v>53114</v>
       </c>
-      <c r="N10" s="54">
+      <c r="N10" s="53">
         <v>248.87</v>
       </c>
-      <c r="O10" s="53">
+      <c r="O10" s="52">
         <v>42186</v>
       </c>
-      <c r="P10" s="54">
+      <c r="P10" s="53">
         <v>334.11</v>
       </c>
-      <c r="Q10" s="52" t="s">
+      <c r="Q10" s="51" t="s">
         <v>507</v>
       </c>
-      <c r="R10" s="54">
+      <c r="R10" s="53">
         <v>80</v>
       </c>
-      <c r="S10" s="54">
-        <v>0</v>
-      </c>
-      <c r="T10" s="54">
+      <c r="S10" s="53">
+        <v>0</v>
+      </c>
+      <c r="T10" s="53">
         <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>42109</v>
       </c>
-      <c r="V10" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="W10" s="54">
+      <c r="V10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="W10" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:23" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="50"/>
-      <c r="C11" s="54"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="54"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="52" t="s">
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="51" t="s">
         <v>642</v>
       </c>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="54"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="53"/>
     </row>
     <row r="12" spans="2:23" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="50"/>
-      <c r="C12" s="54"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="54"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="52" t="s">
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="51" t="s">
         <v>644</v>
       </c>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="54"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="53"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
@@ -13729,19 +13881,19 @@
       <c r="B7" s="50" t="s">
         <v>507</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="52" t="s">
         <v>641</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="53">
         <v>540</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="53">
         <v>60</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="53">
         <v>300</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="53">
         <v>900</v>
       </c>
     </row>
@@ -13749,19 +13901,19 @@
       <c r="B8" s="50" t="s">
         <v>642</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="52" t="s">
         <v>643</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="53">
         <v>538</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="53">
         <v>60</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="53">
         <v>302</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="53">
         <v>900</v>
       </c>
     </row>
@@ -13769,19 +13921,19 @@
       <c r="B9" s="50" t="s">
         <v>644</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="52" t="s">
         <v>645</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="53">
         <v>536</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="53">
         <v>60</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="53">
         <v>304</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="53">
         <v>900</v>
       </c>
     </row>
@@ -13847,10 +13999,10 @@
       <c r="B7" s="50" t="s">
         <v>513</v>
       </c>
-      <c r="C7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="52" t="s">
+      <c r="C7" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>0</v>
       </c>
     </row>
@@ -13948,25 +14100,25 @@
       <c r="B7" s="50" t="s">
         <v>523</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="52" t="s">
+      <c r="C7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="51" t="s">
         <v>0</v>
       </c>
     </row>
@@ -14080,12 +14232,12 @@
       <c r="B9" s="50" t="s">
         <v>595</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54" t="b">
+      <c r="C9" s="51"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="51" t="s">
         <v>646</v>
       </c>
     </row>
@@ -14093,12 +14245,12 @@
       <c r="B10" s="50" t="s">
         <v>601</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54" t="b">
+      <c r="C10" s="51"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="51" t="s">
         <v>646</v>
       </c>
     </row>
@@ -14106,44 +14258,44 @@
       <c r="B11" s="50" t="s">
         <v>650</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="51" t="s">
         <v>651</v>
       </c>
-      <c r="D11" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="52"/>
+      <c r="D11" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="50" t="s">
         <v>655</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="54" t="b">
+      <c r="C12" s="51"/>
+      <c r="D12" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="52"/>
+      <c r="E12" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="51"/>
     </row>
     <row r="13" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="50" t="s">
         <v>654</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="51" t="s">
         <v>659</v>
       </c>
-      <c r="D13" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="52"/>
+      <c r="D13" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="51"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -14577,10 +14729,10 @@
       <c r="B9" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="52" t="s">
+      <c r="C9" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="51" t="s">
         <v>0</v>
       </c>
     </row>
@@ -14653,13 +14805,13 @@
       <c r="B7" s="50" t="s">
         <v>651</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
         <v>652</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>653</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>634</v>
       </c>
     </row>
@@ -14667,13 +14819,13 @@
       <c r="B8" s="50" t="s">
         <v>659</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>658</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>660</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="51" t="s">
         <v>634</v>
       </c>
     </row>
@@ -14746,13 +14898,13 @@
       <c r="B7" s="50" t="s">
         <v>646</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
         <v>647</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>648</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>556</v>
       </c>
     </row>
@@ -15389,219 +15541,219 @@
       <c r="B7" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="53">
         <v>200000</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>603</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="54" t="s">
+      <c r="E7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="53" t="s">
         <v>0</v>
       </c>
       <c r="H7" t="s">
         <v>680</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="51" t="s">
         <v>608</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="J7" s="51" t="s">
         <v>56</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="L7" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="52" t="s">
+      <c r="L7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="52" t="s">
+      <c r="N7" s="51" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="52" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="51" t="s">
         <v>604</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="52" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="51" t="s">
         <v>605</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="52" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="51" t="s">
         <v>606</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="52" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="51" t="s">
         <v>607</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
     </row>
     <row r="12" spans="2:14" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="53">
         <v>200000</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="51" t="s">
         <v>603</v>
       </c>
-      <c r="E12" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="54" t="s">
+      <c r="E12" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="53" t="s">
         <v>0</v>
       </c>
       <c r="H12" t="s">
         <v>676</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="51" t="s">
         <v>608</v>
       </c>
-      <c r="J12" s="52" t="s">
+      <c r="J12" s="51" t="s">
         <v>56</v>
       </c>
       <c r="K12" s="1">
         <v>42350</v>
       </c>
-      <c r="L12" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="52" t="s">
+      <c r="L12" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="52" t="s">
+      <c r="N12" s="51" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="52" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="51" t="s">
         <v>604</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
     </row>
     <row r="14" spans="2:14" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="52" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="51" t="s">
         <v>605</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
     </row>
     <row r="15" spans="2:14" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="52" t="s">
+      <c r="C15" s="53"/>
+      <c r="D15" s="51" t="s">
         <v>606</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
     </row>
     <row r="16" spans="2:14" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="52" t="s">
+      <c r="C16" s="53"/>
+      <c r="D16" s="51" t="s">
         <v>607</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" s="1"/>
@@ -15691,7 +15843,7 @@
       <c r="C7" s="1">
         <v>41974</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>73</v>
       </c>
     </row>
@@ -15702,7 +15854,7 @@
       <c r="C8" s="1">
         <v>42020</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>66</v>
       </c>
     </row>
@@ -15713,7 +15865,7 @@
       <c r="C9" s="1">
         <v>42038</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="51" t="s">
         <v>74</v>
       </c>
     </row>
@@ -15724,7 +15876,7 @@
       <c r="C10" s="1">
         <v>42038</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="51" t="s">
         <v>79</v>
       </c>
     </row>
@@ -15735,7 +15887,7 @@
       <c r="C11" s="1">
         <v>42078</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="51" t="s">
         <v>76</v>
       </c>
     </row>
@@ -16124,118 +16276,118 @@
       <c r="B7" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="52" t="s">
+      <c r="C7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="52" t="s">
+      <c r="E7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="51" t="s">
         <v>609</v>
       </c>
       <c r="G7" s="1">
         <v>29602</v>
       </c>
-      <c r="H7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="52" t="s">
+      <c r="H7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="K7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="54">
+      <c r="K7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="53">
         <v>2300</v>
       </c>
-      <c r="O7" s="52" t="s">
+      <c r="O7" s="51" t="s">
         <v>662</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="51" t="s">
         <v>610</v>
       </c>
-      <c r="Q7" s="54" t="b">
+      <c r="Q7" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="R7" s="52" t="s">
+      <c r="R7" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="S7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="T7" s="52" t="s">
+      <c r="S7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="U7" s="52" t="s">
+      <c r="U7" s="51" t="s">
         <v>611</v>
       </c>
-      <c r="V7" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="W7" s="52" t="s">
+      <c r="V7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="X7" s="52" t="s">
+      <c r="X7" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="Y7" s="52" t="s">
+      <c r="Y7" s="51" t="s">
         <v>612</v>
       </c>
-      <c r="Z7" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="52" t="s">
+      <c r="Z7" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="51" t="s">
         <v>613</v>
       </c>
-      <c r="AB7" s="54" t="b">
+      <c r="AB7" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="AC7" s="52" t="s">
+      <c r="AC7" s="51" t="s">
         <v>614</v>
       </c>
-      <c r="AD7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="52" t="s">
+      <c r="AD7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="AF7" s="54">
+      <c r="AF7" s="53">
         <v>49</v>
       </c>
-      <c r="AG7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="52" t="s">
+      <c r="AG7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="AI7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="54">
+      <c r="AI7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="53">
         <v>23000</v>
       </c>
-      <c r="AL7" s="54">
+      <c r="AL7" s="53">
         <v>132000</v>
       </c>
-      <c r="AM7" s="54" t="b">
+      <c r="AM7" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="AN7" s="54">
+      <c r="AN7" s="53">
         <v>10</v>
       </c>
     </row>
@@ -16243,592 +16395,592 @@
       <c r="B8" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52" t="s">
+      <c r="E8" s="51"/>
+      <c r="F8" s="51" t="s">
         <v>615</v>
       </c>
       <c r="G8" s="1">
         <v>31427</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="I8" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="52" t="s">
+      <c r="I8" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54" t="s">
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53" t="s">
         <v>673</v>
       </c>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52" t="s">
+      <c r="O8" s="51"/>
+      <c r="P8" s="51" t="s">
         <v>617</v>
       </c>
-      <c r="Q8" s="54" t="b">
+      <c r="Q8" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="R8" s="52" t="s">
+      <c r="R8" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52" t="s">
+      <c r="S8" s="51"/>
+      <c r="T8" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="U8" s="52" t="s">
+      <c r="U8" s="51" t="s">
         <v>618</v>
       </c>
-      <c r="V8" s="53"/>
-      <c r="W8" s="52" t="s">
+      <c r="V8" s="52"/>
+      <c r="W8" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="X8" s="52" t="s">
+      <c r="X8" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="Y8" s="52" t="s">
+      <c r="Y8" s="51" t="s">
         <v>619</v>
       </c>
-      <c r="Z8" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="52" t="s">
+      <c r="Z8" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="51" t="s">
         <v>613</v>
       </c>
-      <c r="AB8" s="54" t="b">
+      <c r="AB8" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="AC8" s="52" t="s">
+      <c r="AC8" s="51" t="s">
         <v>614</v>
       </c>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52" t="s">
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="AF8" s="54">
+      <c r="AF8" s="53">
         <v>51</v>
       </c>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="52" t="s">
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="52"/>
-      <c r="AK8" s="54">
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="53">
         <v>11650</v>
       </c>
-      <c r="AL8" s="54">
+      <c r="AL8" s="53">
         <v>132000</v>
       </c>
-      <c r="AM8" s="54" t="b">
+      <c r="AM8" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="AN8" s="54">
+      <c r="AN8" s="53">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="51" t="s">
         <v>616</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="52"/>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="54"/>
-      <c r="AM9" s="54"/>
-      <c r="AN9" s="54"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="51"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
     </row>
     <row r="10" spans="2:40" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52" t="s">
+      <c r="E10" s="51"/>
+      <c r="F10" s="51" t="s">
         <v>615</v>
       </c>
       <c r="G10" s="1">
         <v>31427</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="I10" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="52" t="s">
+      <c r="I10" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54">
-        <v>0</v>
-      </c>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52" t="s">
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53">
+        <v>0</v>
+      </c>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51" t="s">
         <v>617</v>
       </c>
-      <c r="Q10" s="54" t="b">
+      <c r="Q10" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="R10" s="52" t="s">
+      <c r="R10" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52" t="s">
+      <c r="S10" s="51"/>
+      <c r="T10" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="U10" s="52" t="s">
+      <c r="U10" s="51" t="s">
         <v>618</v>
       </c>
-      <c r="V10" s="53"/>
-      <c r="W10" s="52" t="s">
+      <c r="V10" s="52"/>
+      <c r="W10" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="X10" s="52" t="s">
+      <c r="X10" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="Y10" s="52" t="s">
+      <c r="Y10" s="51" t="s">
         <v>619</v>
       </c>
-      <c r="Z10" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="52" t="s">
+      <c r="Z10" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="51" t="s">
         <v>613</v>
       </c>
-      <c r="AB10" s="54" t="b">
+      <c r="AB10" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="AC10" s="52" t="s">
+      <c r="AC10" s="51" t="s">
         <v>614</v>
       </c>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="52" t="s">
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="AF10" s="54">
+      <c r="AF10" s="53">
         <v>51</v>
       </c>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="52" t="s">
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="AI10" s="52"/>
-      <c r="AJ10" s="52"/>
-      <c r="AK10" s="54">
+      <c r="AI10" s="51"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="53">
         <v>11650</v>
       </c>
-      <c r="AL10" s="54">
+      <c r="AL10" s="53">
         <v>132000</v>
       </c>
-      <c r="AM10" s="54" t="b">
+      <c r="AM10" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="AN10" s="54">
+      <c r="AN10" s="53">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:40" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="51" t="s">
         <v>616</v>
       </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
-      <c r="AK11" s="54"/>
-      <c r="AL11" s="54"/>
-      <c r="AM11" s="54"/>
-      <c r="AN11" s="54"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="51"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="51"/>
+      <c r="AH11" s="51"/>
+      <c r="AI11" s="51"/>
+      <c r="AJ11" s="51"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="53"/>
     </row>
     <row r="12" spans="2:40" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52" t="s">
+      <c r="C12" s="51"/>
+      <c r="D12" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52" t="s">
+      <c r="E12" s="51"/>
+      <c r="F12" s="51" t="s">
         <v>615</v>
       </c>
       <c r="G12" s="1">
         <v>31427</v>
       </c>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="I12" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="52" t="s">
+      <c r="I12" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54">
-        <v>0</v>
-      </c>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52" t="s">
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53">
+        <v>0</v>
+      </c>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51" t="s">
         <v>617</v>
       </c>
-      <c r="Q12" s="54" t="b">
+      <c r="Q12" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="R12" s="52" t="s">
+      <c r="R12" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52" t="s">
+      <c r="S12" s="51"/>
+      <c r="T12" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="U12" s="52" t="s">
+      <c r="U12" s="51" t="s">
         <v>618</v>
       </c>
-      <c r="V12" s="53"/>
-      <c r="W12" s="52" t="s">
+      <c r="V12" s="52"/>
+      <c r="W12" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="X12" s="52" t="s">
+      <c r="X12" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="Y12" s="52" t="s">
+      <c r="Y12" s="51" t="s">
         <v>619</v>
       </c>
-      <c r="Z12" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="52" t="s">
+      <c r="Z12" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="51" t="s">
         <v>613</v>
       </c>
-      <c r="AB12" s="54" t="b">
+      <c r="AB12" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="AC12" s="52" t="s">
+      <c r="AC12" s="51" t="s">
         <v>614</v>
       </c>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52" t="s">
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="AF12" s="54">
+      <c r="AF12" s="53">
         <v>51</v>
       </c>
-      <c r="AG12" s="52"/>
-      <c r="AH12" s="52" t="s">
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="AI12" s="52"/>
-      <c r="AJ12" s="52"/>
-      <c r="AK12" s="54">
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="53">
         <v>11650</v>
       </c>
-      <c r="AL12" s="54">
+      <c r="AL12" s="53">
         <v>132000</v>
       </c>
-      <c r="AM12" s="54" t="b">
+      <c r="AM12" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="AN12" s="54">
+      <c r="AN12" s="53">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:40" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="50"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="51" t="s">
         <v>616</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="52"/>
-      <c r="AJ13" s="52"/>
-      <c r="AK13" s="54"/>
-      <c r="AL13" s="54"/>
-      <c r="AM13" s="54"/>
-      <c r="AN13" s="54"/>
-    </row>
-    <row r="14" spans="2:40" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="53"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="51"/>
+      <c r="AJ13" s="51"/>
+      <c r="AK13" s="53"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="53"/>
+    </row>
+    <row r="14" spans="2:40" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="53" t="s">
         <v>615</v>
       </c>
       <c r="G14" s="1">
         <v>31427</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="H14" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="I14" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="54" t="s">
+      <c r="I14" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="N14" s="54">
-        <v>0</v>
-      </c>
-      <c r="P14" s="54" t="s">
+      <c r="N14" s="53">
+        <v>0</v>
+      </c>
+      <c r="P14" s="53" t="s">
         <v>617</v>
       </c>
-      <c r="Q14" s="54" t="b">
+      <c r="Q14" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="R14" s="54" t="s">
+      <c r="R14" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="T14" s="54" t="s">
+      <c r="T14" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="U14" s="54" t="s">
+      <c r="U14" s="53" t="s">
         <v>618</v>
       </c>
-      <c r="W14" s="54" t="s">
+      <c r="W14" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="X14" s="54" t="s">
+      <c r="X14" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="Y14" s="54" t="s">
+      <c r="Y14" s="53" t="s">
         <v>619</v>
       </c>
-      <c r="Z14" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="54" t="s">
+      <c r="Z14" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="53" t="s">
         <v>613</v>
       </c>
-      <c r="AB14" s="54" t="b">
+      <c r="AB14" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="AC14" s="54" t="s">
+      <c r="AC14" s="53" t="s">
         <v>614</v>
       </c>
-      <c r="AE14" s="54" t="s">
+      <c r="AE14" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="AF14" s="54">
+      <c r="AF14" s="53">
         <v>51</v>
       </c>
-      <c r="AH14" s="54" t="s">
+      <c r="AH14" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="AK14" s="54">
+      <c r="AK14" s="53">
         <v>11650</v>
       </c>
-      <c r="AL14" s="54">
+      <c r="AL14" s="53">
         <v>132000</v>
       </c>
-      <c r="AM14" s="54" t="b">
+      <c r="AM14" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="AN14" s="54">
+      <c r="AN14" s="53">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:40" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:40" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="53" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="16" spans="2:40" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:40" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="53" t="s">
         <v>615</v>
       </c>
       <c r="G16" s="1">
         <v>31427</v>
       </c>
-      <c r="H16" s="54" t="s">
+      <c r="H16" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="I16" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="54" t="s">
+      <c r="I16" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="N16" s="54">
-        <v>0</v>
-      </c>
-      <c r="P16" s="54" t="s">
+      <c r="N16" s="53">
+        <v>0</v>
+      </c>
+      <c r="P16" s="53" t="s">
         <v>617</v>
       </c>
-      <c r="Q16" s="54" t="b">
+      <c r="Q16" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="R16" s="54" t="s">
+      <c r="R16" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="T16" s="54" t="s">
+      <c r="T16" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="U16" s="54" t="s">
+      <c r="U16" s="53" t="s">
         <v>618</v>
       </c>
-      <c r="W16" s="54" t="s">
+      <c r="W16" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="X16" s="54" t="s">
+      <c r="X16" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="Y16" s="54" t="s">
+      <c r="Y16" s="53" t="s">
         <v>619</v>
       </c>
-      <c r="Z16" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="54" t="s">
+      <c r="Z16" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="53" t="s">
         <v>613</v>
       </c>
-      <c r="AB16" s="54" t="b">
+      <c r="AB16" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="AC16" s="54" t="s">
+      <c r="AC16" s="53" t="s">
         <v>614</v>
       </c>
-      <c r="AE16" s="54" t="s">
+      <c r="AE16" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="AF16" s="54">
+      <c r="AF16" s="53">
         <v>51</v>
       </c>
-      <c r="AH16" s="54" t="s">
+      <c r="AH16" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="AK16" s="54">
+      <c r="AK16" s="53">
         <v>11650</v>
       </c>
-      <c r="AL16" s="54">
+      <c r="AL16" s="53">
         <v>132000</v>
       </c>
-      <c r="AM16" s="54" t="b">
+      <c r="AM16" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="AN16" s="54">
+      <c r="AN16" s="53">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="7:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:8" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G17" s="1"/>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="53" t="s">
         <v>616</v>
       </c>
     </row>
@@ -17047,22 +17199,22 @@
       <c r="B7" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
         <v>620</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>661</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>621</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="51" t="s">
         <v>622</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="51" t="s">
         <v>623</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="51" t="s">
         <v>621</v>
       </c>
     </row>
@@ -17148,19 +17300,19 @@
       <c r="B7" s="50" t="s">
         <v>621</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
         <v>624</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>625</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>626</v>
       </c>
-      <c r="F7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="52" t="s">
+      <c r="F7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>627</v>
       </c>
     </row>
@@ -17318,46 +17470,46 @@
       <c r="C7" s="1">
         <v>42019</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>628</v>
       </c>
-      <c r="E7" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="54">
+      <c r="E7" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="53">
         <v>720</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="53">
         <v>1</v>
       </c>
-      <c r="H7" s="54">
-        <v>0</v>
-      </c>
-      <c r="I7" s="54">
-        <v>0</v>
-      </c>
-      <c r="J7" s="54">
-        <v>0</v>
-      </c>
-      <c r="K7" s="54">
+      <c r="H7" s="53">
+        <v>0</v>
+      </c>
+      <c r="I7" s="53">
+        <v>0</v>
+      </c>
+      <c r="J7" s="53">
+        <v>0</v>
+      </c>
+      <c r="K7" s="53">
         <v>5</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="53">
         <v>1</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7" s="53">
         <v>3900.13</v>
       </c>
-      <c r="N7" s="54">
+      <c r="N7" s="53">
         <v>387.42</v>
       </c>
-      <c r="O7" s="54">
+      <c r="O7" s="53">
         <v>7812.87</v>
       </c>
-      <c r="P7" s="54">
+      <c r="P7" s="53">
         <v>733.3</v>
       </c>
-      <c r="Q7" s="54">
+      <c r="Q7" s="53">
         <v>6</v>
       </c>
     </row>
@@ -17368,46 +17520,46 @@
       <c r="C8" s="1">
         <v>42019</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>628</v>
       </c>
       <c r="E8" t="s">
         <v>675</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="53">
         <v>640</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="53">
         <v>1</v>
       </c>
-      <c r="H8" s="54">
-        <v>0</v>
-      </c>
-      <c r="I8" s="54">
-        <v>0</v>
-      </c>
-      <c r="J8" s="54">
+      <c r="H8" s="53">
+        <v>0</v>
+      </c>
+      <c r="I8" s="53">
+        <v>0</v>
+      </c>
+      <c r="J8" s="53">
         <v>1</v>
       </c>
-      <c r="K8" s="54">
+      <c r="K8" s="53">
         <v>5</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8" s="53">
         <v>1</v>
       </c>
-      <c r="M8" s="54" t="s">
+      <c r="M8" s="53" t="s">
         <v>674</v>
       </c>
-      <c r="N8" s="54">
+      <c r="N8" s="53">
         <v>1127.42</v>
       </c>
-      <c r="O8" s="54">
+      <c r="O8" s="53">
         <v>7812.87</v>
       </c>
-      <c r="P8" s="54">
+      <c r="P8" s="53">
         <v>733.3</v>
       </c>
-      <c r="Q8" s="54">
+      <c r="Q8" s="53">
         <v>6</v>
       </c>
     </row>
@@ -17485,10 +17637,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B2:I8"/>
+  <dimension ref="B2:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -17570,25 +17722,25 @@
       <c r="B7" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="53">
         <v>9021.84</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="1">
         <v>42004</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="54">
+      <c r="E7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="53">
         <v>1011.8</v>
       </c>
-      <c r="I7" s="54" t="b">
+      <c r="I7" s="53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -17596,23 +17748,41 @@
       <c r="B8" s="50" t="s">
         <v>616</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="53">
         <v>1000</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="1">
         <v>42004</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="54">
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="53">
         <v>87.22</v>
       </c>
-      <c r="I8" s="54" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" s="53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
